--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/6_tabla_dm_por_d_fixed_m.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/6_tabla_dm_por_d_fixed_m.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="22">
   <si>
     <t>d</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,19 +480,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>8.659901630721464</v>
+        <v>8.663526526158217</v>
       </c>
       <c r="D2">
-        <v>0.699491068333178</v>
+        <v>0.6994382448879282</v>
       </c>
       <c r="E2">
-        <v>91.92264418048704</v>
+        <v>91.92663353917045</v>
       </c>
       <c r="F2">
-        <v>5.647224391152311</v>
+        <v>5.647896610076669</v>
       </c>
       <c r="G2">
-        <v>1.116667869438537E-05</v>
+        <v>1.114891323972245E-05</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -538,19 +538,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>6.079569206452023</v>
+        <v>5.369242002566493</v>
       </c>
       <c r="D4">
-        <v>0.8877020412991593</v>
+        <v>0.7274922139810557</v>
       </c>
       <c r="E4">
-        <v>85.39860290829367</v>
+        <v>86.45074642503886</v>
       </c>
       <c r="F4">
-        <v>6.389085069016486</v>
+        <v>6.533099618323958</v>
       </c>
       <c r="G4">
-        <v>1.984500921370369E-06</v>
+        <v>1.429661666385584E-06</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
@@ -625,19 +625,19 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3.029404614813376</v>
+        <v>3.045061224774464</v>
       </c>
       <c r="D7">
-        <v>0.6998300239619539</v>
+        <v>0.7074335935529131</v>
       </c>
       <c r="E7">
-        <v>76.89876022041162</v>
+        <v>76.76783679102182</v>
       </c>
       <c r="F7">
-        <v>3.983255329475594</v>
+        <v>3.979940955020395</v>
       </c>
       <c r="G7">
-        <v>0.0006282664973646934</v>
+        <v>0.0006333609825530662</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -654,19 +654,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>2.691116401345114</v>
+        <v>2.701955361016653</v>
       </c>
       <c r="D8">
-        <v>0.6830674722970614</v>
+        <v>0.6889183596399426</v>
       </c>
       <c r="E8">
-        <v>74.61769130626827</v>
+        <v>74.50297034586364</v>
       </c>
       <c r="F8">
-        <v>4.228686884421043</v>
+        <v>4.233609761091651</v>
       </c>
       <c r="G8">
-        <v>0.0003451432705754431</v>
+        <v>0.0003410168527335777</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -741,19 +741,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1842.921612235855</v>
+        <v>1843.119817584459</v>
       </c>
       <c r="D11">
-        <v>34.41017156535496</v>
+        <v>34.413495310372</v>
       </c>
       <c r="E11">
-        <v>98.13284670726674</v>
+        <v>98.13286716457354</v>
       </c>
       <c r="F11">
-        <v>4.29871261911121</v>
+        <v>4.299167632376165</v>
       </c>
       <c r="G11">
-        <v>0.0002908630083049424</v>
+        <v>0.0002905397748014238</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -828,19 +828,19 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>623.1497992270617</v>
+        <v>887.1610385335186</v>
       </c>
       <c r="D14">
-        <v>28.19110881149735</v>
+        <v>30.54165270518868</v>
       </c>
       <c r="E14">
-        <v>95.47603018624659</v>
+        <v>96.55737218175472</v>
       </c>
       <c r="F14">
-        <v>4.132225927495387</v>
+        <v>3.139397787917392</v>
       </c>
       <c r="G14">
-        <v>0.000436838700889508</v>
+        <v>0.004764677455612487</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -857,19 +857,19 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>606.379519325962</v>
+        <v>607.6788956355718</v>
       </c>
       <c r="D15">
-        <v>29.34372483835668</v>
+        <v>29.35904219599299</v>
       </c>
       <c r="E15">
-        <v>95.16083180530659</v>
+        <v>95.16865857826339</v>
       </c>
       <c r="F15">
-        <v>4.289341645612171</v>
+        <v>4.286107696026305</v>
       </c>
       <c r="G15">
-        <v>0.0002976004919128528</v>
+        <v>0.0002999616353533963</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -886,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>493.7056657904255</v>
+        <v>496.1349728514716</v>
       </c>
       <c r="D16">
-        <v>29.27638233146019</v>
+        <v>29.2968893301947</v>
       </c>
       <c r="E16">
-        <v>94.07007365722883</v>
+        <v>94.09497597764282</v>
       </c>
       <c r="F16">
-        <v>4.531906028848574</v>
+        <v>4.505959219671162</v>
       </c>
       <c r="G16">
-        <v>0.0001645403516006283</v>
+        <v>0.0001753018583174892</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1031,19 +1031,19 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>94684.81007314504</v>
+        <v>94891.83174998802</v>
       </c>
       <c r="D21">
-        <v>596.269918181964</v>
+        <v>597.7100550895532</v>
       </c>
       <c r="E21">
-        <v>99.37025810399646</v>
+        <v>99.37011432484057</v>
       </c>
       <c r="F21">
-        <v>5.667046898482369</v>
+        <v>5.666122478986837</v>
       </c>
       <c r="G21">
-        <v>1.065470793260026E-05</v>
+        <v>1.067804402676842E-05</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
@@ -1118,19 +1118,19 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>239041.5701604958</v>
+        <v>239029.2143902132</v>
       </c>
       <c r="D24">
-        <v>1822.021398519945</v>
+        <v>1822.124109082956</v>
       </c>
       <c r="E24">
-        <v>99.23778052608313</v>
+        <v>99.23769815596334</v>
       </c>
       <c r="F24">
-        <v>5.816142952968804</v>
+        <v>5.817629428354874</v>
       </c>
       <c r="G24">
-        <v>7.495253689260295E-06</v>
+        <v>7.46910221427477E-06</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -1144,22 +1144,22 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>64392.06810269794</v>
+        <v>51463.44232116333</v>
       </c>
       <c r="D25">
-        <v>621.0127084121173</v>
+        <v>515.8738629160657</v>
       </c>
       <c r="E25">
-        <v>99.03557576777675</v>
+        <v>98.9975916113487</v>
       </c>
       <c r="F25">
-        <v>5.698941383275724</v>
+        <v>5.406969511476652</v>
       </c>
       <c r="G25">
-        <v>9.880563146769106E-06</v>
+        <v>1.97813312365902E-05</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -1173,22 +1173,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>51365.92510653412</v>
+        <v>76725.4774647124</v>
       </c>
       <c r="D26">
-        <v>513.5749039887279</v>
+        <v>804.4784241064688</v>
       </c>
       <c r="E26">
-        <v>99.00016420823033</v>
+        <v>98.9514846297614</v>
       </c>
       <c r="F26">
-        <v>5.406774435009096</v>
+        <v>6.144802766344924</v>
       </c>
       <c r="G26">
-        <v>1.979055963818865E-05</v>
+        <v>3.481112960557198E-06</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -1321,19 +1321,19 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <v>7647897.093405686</v>
+        <v>7650016.09706249</v>
       </c>
       <c r="D31">
-        <v>85253.8510114145</v>
+        <v>85313.40533540784</v>
       </c>
       <c r="E31">
-        <v>98.88526414555285</v>
+        <v>98.88479443372457</v>
       </c>
       <c r="F31">
-        <v>6.040376245754704</v>
+        <v>6.046966344571899</v>
       </c>
       <c r="G31">
-        <v>4.435863485197089E-06</v>
+        <v>4.368371011587158E-06</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -1408,19 +1408,19 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>3946194.012936089</v>
+        <v>3949555.41930737</v>
       </c>
       <c r="D34">
-        <v>50680.78356400538</v>
+        <v>50728.35286098456</v>
       </c>
       <c r="E34">
-        <v>98.71570471705476</v>
+        <v>98.71559333961997</v>
       </c>
       <c r="F34">
-        <v>6.25181227076524</v>
+        <v>6.255841783842101</v>
       </c>
       <c r="G34">
-        <v>2.719091294789422E-06</v>
+        <v>2.69398390417841E-06</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -1437,19 +1437,19 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>16400704.41870035</v>
+        <v>16402802.7359937</v>
       </c>
       <c r="D35">
-        <v>211562.098164686</v>
+        <v>211628.9445684948</v>
       </c>
       <c r="E35">
-        <v>98.71004261302667</v>
+        <v>98.70980009956406</v>
       </c>
       <c r="F35">
-        <v>6.126877163027812</v>
+        <v>6.12799034992442</v>
       </c>
       <c r="G35">
-        <v>3.628675831146566E-06</v>
+        <v>3.619328720061432E-06</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
@@ -1466,19 +1466,19 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>4030683.788336271</v>
+        <v>4876168.263484871</v>
       </c>
       <c r="D36">
-        <v>57558.21492955724</v>
+        <v>67650.91406843558</v>
       </c>
       <c r="E36">
-        <v>98.57199874879504</v>
+        <v>98.61262141884974</v>
       </c>
       <c r="F36">
-        <v>6.512742795672599</v>
+        <v>5.888543658442072</v>
       </c>
       <c r="G36">
-        <v>1.497258743210494E-06</v>
+        <v>6.323707134603396E-06</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
@@ -1582,19 +1582,19 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>301596277.797565</v>
+        <v>302029135.8022056</v>
       </c>
       <c r="D40">
-        <v>4647295.854732187</v>
+        <v>4652938.886985654</v>
       </c>
       <c r="E40">
-        <v>98.45910039451762</v>
+        <v>98.45944038656165</v>
       </c>
       <c r="F40">
-        <v>5.992168810948184</v>
+        <v>5.99361615974306</v>
       </c>
       <c r="G40">
-        <v>4.963083719777828E-06</v>
+        <v>4.946358789670313E-06</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
@@ -1608,22 +1608,22 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>573502194.401401</v>
+        <v>373799034.0554756</v>
       </c>
       <c r="D41">
-        <v>9156465.72864178</v>
+        <v>5925536.849115291</v>
       </c>
       <c r="E41">
-        <v>98.40341225926801</v>
+        <v>98.4147800531138</v>
       </c>
       <c r="F41">
-        <v>6.00890474687536</v>
+        <v>5.833610302955822</v>
       </c>
       <c r="G41">
-        <v>4.773164018923026E-06</v>
+        <v>7.19375618696283E-06</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -1637,22 +1637,22 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>283645076.2654231</v>
+        <v>574225765.8906945</v>
       </c>
       <c r="D42">
-        <v>4791721.657584624</v>
+        <v>9165618.36345561</v>
       </c>
       <c r="E42">
-        <v>98.31066284644379</v>
+        <v>98.40383018180337</v>
       </c>
       <c r="F42">
-        <v>5.670362078287641</v>
+        <v>6.011397089147072</v>
       </c>
       <c r="G42">
-        <v>1.057144534799548E-05</v>
+        <v>4.745522187876716E-06</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
@@ -1727,19 +1727,19 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>1100385677.789406</v>
+        <v>1100370138.151046</v>
       </c>
       <c r="D45">
-        <v>19667379.56254216</v>
+        <v>19664540.92785762</v>
       </c>
       <c r="E45">
-        <v>98.21268306562727</v>
+        <v>98.21291579568853</v>
       </c>
       <c r="F45">
-        <v>6.109514496358539</v>
+        <v>6.114020870926963</v>
       </c>
       <c r="G45">
-        <v>3.777699104645649E-06</v>
+        <v>3.738430381039493E-06</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47">
-        <v>66863.28710318518</v>
+        <v>1400.979036837564</v>
       </c>
       <c r="D47">
-        <v>1261.12908964024</v>
+        <v>26.63349199135783</v>
       </c>
       <c r="E47">
-        <v>98.11386914362433</v>
+        <v>98.09893715101707</v>
       </c>
       <c r="F47">
-        <v>6.041136826472371</v>
+        <v>3.918077605372396</v>
       </c>
       <c r="G47">
-        <v>4.428019965141416E-06</v>
+        <v>0.0007363391154457943</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -1808,25 +1808,25 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48">
-        <v>53727782889.18716</v>
+        <v>1287459788.280791</v>
       </c>
       <c r="D48">
-        <v>1292964334.799403</v>
+        <v>25243545.10549158</v>
       </c>
       <c r="E48">
-        <v>97.59349024792978</v>
+        <v>98.03927506433419</v>
       </c>
       <c r="F48">
-        <v>7.549038904497483</v>
+        <v>7.965213233173771</v>
       </c>
       <c r="G48">
-        <v>1.525511936772972E-07</v>
+        <v>6.345664749218827E-08</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -1837,25 +1837,25 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>433742937238.8953</v>
+        <v>8148610972.51496</v>
       </c>
       <c r="D49">
-        <v>10554398124.21799</v>
+        <v>160826311.8691058</v>
       </c>
       <c r="E49">
-        <v>97.56666974420268</v>
+        <v>98.0263346426579</v>
       </c>
       <c r="F49">
-        <v>7.565765821391285</v>
+        <v>8.012173778048647</v>
       </c>
       <c r="G49">
-        <v>1.472009434344557E-07</v>
+        <v>5.756053234051706E-08</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -1866,25 +1866,25 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>334035903055.7594</v>
+        <v>12023767741.14577</v>
       </c>
       <c r="D50">
-        <v>8139888003.539444</v>
+        <v>241300287.4162372</v>
       </c>
       <c r="E50">
-        <v>97.56316972844064</v>
+        <v>97.99313915062997</v>
       </c>
       <c r="F50">
-        <v>7.872908608883071</v>
+        <v>8.04942311779922</v>
       </c>
       <c r="G50">
-        <v>7.693028147848224E-08</v>
+        <v>5.328705965368385E-08</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -1895,25 +1895,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>491505184098.5649</v>
+        <v>22120957776.42364</v>
       </c>
       <c r="D51">
-        <v>12007879160.7819</v>
+        <v>455451865.039818</v>
       </c>
       <c r="E51">
-        <v>97.55691708871703</v>
+        <v>97.94108433439878</v>
       </c>
       <c r="F51">
-        <v>7.785045544448417</v>
+        <v>8.007952831548478</v>
       </c>
       <c r="G51">
-        <v>9.250262378301954E-08</v>
+        <v>5.806658842644197E-08</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
@@ -1924,25 +1924,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>869544076802.2577</v>
+        <v>13455285178.20615</v>
       </c>
       <c r="D52">
-        <v>22094331867.46754</v>
+        <v>290279923.7108551</v>
       </c>
       <c r="E52">
-        <v>97.4590900614585</v>
+        <v>97.84263269141981</v>
       </c>
       <c r="F52">
-        <v>7.78035899845255</v>
+        <v>8.127830936110364</v>
       </c>
       <c r="G52">
-        <v>9.341934736895041E-08</v>
+        <v>4.532758457465036E-08</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
@@ -1953,25 +1953,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>1345866062803.361</v>
+        <v>36559212319.26645</v>
       </c>
       <c r="D53">
-        <v>35937620393.91891</v>
+        <v>796011138.9636092</v>
       </c>
       <c r="E53">
-        <v>97.32977735399146</v>
+        <v>97.82267973387349</v>
       </c>
       <c r="F53">
-        <v>7.742869885182714</v>
+        <v>7.706918887139473</v>
       </c>
       <c r="G53">
-        <v>1.010978862847622E-07</v>
+        <v>1.090728460884094E-07</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
@@ -1982,25 +1982,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54">
-        <v>1393436492059.6</v>
+        <v>37785982911.24337</v>
       </c>
       <c r="D54">
-        <v>37785982911.24001</v>
+        <v>849585974.7623143</v>
       </c>
       <c r="E54">
-        <v>97.28828811886578</v>
+        <v>97.75158429315461</v>
       </c>
       <c r="F54">
-        <v>7.714800948002386</v>
+        <v>7.91837218254468</v>
       </c>
       <c r="G54">
-        <v>1.072706010685209E-07</v>
+        <v>6.995991586045136E-08</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -2011,25 +2011,25 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>1424477932023.208</v>
+        <v>38817825716.94899</v>
       </c>
       <c r="D55">
-        <v>38798178024.42425</v>
+        <v>878281275.2445639</v>
       </c>
       <c r="E55">
-        <v>97.2763229845675</v>
+        <v>97.73742794960029</v>
       </c>
       <c r="F55">
-        <v>7.710098910556834</v>
+        <v>7.909158998473044</v>
       </c>
       <c r="G55">
-        <v>1.083420051450901E-07</v>
+        <v>7.13178889277799E-08</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -2040,25 +2040,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>1.4192001549645E+16</v>
+        <v>97372.7654354666</v>
       </c>
       <c r="D56">
-        <v>535779194320910.2</v>
+        <v>1570.67474124423</v>
       </c>
       <c r="E56">
-        <v>96.2247806100732</v>
+        <v>98.38694656126903</v>
       </c>
       <c r="F56">
-        <v>5.915066814774779</v>
+        <v>4.183102404599025</v>
       </c>
       <c r="G56">
-        <v>5.942809149228623E-06</v>
+        <v>0.0003857997176008876</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
@@ -2069,25 +2069,25 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57">
-        <v>1738799778604794</v>
+        <v>64380602828.17851</v>
       </c>
       <c r="D57">
-        <v>66193307142749.42</v>
+        <v>1541935848.40369</v>
       </c>
       <c r="E57">
-        <v>96.19316105527326</v>
+        <v>97.60496829686596</v>
       </c>
       <c r="F57">
-        <v>6.165917364906742</v>
+        <v>5.706611632530271</v>
       </c>
       <c r="G57">
-        <v>3.315135090886656E-06</v>
+        <v>9.703087466617077E-06</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
@@ -2098,25 +2098,25 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58">
-        <v>1.065821675356784E+16</v>
+        <v>405391373034.7842</v>
       </c>
       <c r="D58">
-        <v>412188113426947.1</v>
+        <v>9982603070.527473</v>
       </c>
       <c r="E58">
-        <v>96.13267281987892</v>
+        <v>97.53753934234044</v>
       </c>
       <c r="F58">
-        <v>6.009509323537195</v>
+        <v>5.693267506750887</v>
       </c>
       <c r="G58">
-        <v>4.766443777892704E-06</v>
+        <v>1.001396999433801E-05</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
@@ -2127,25 +2127,25 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59">
-        <v>1.516427993093481E+16</v>
+        <v>592496493073.3569</v>
       </c>
       <c r="D59">
-        <v>587010965309421.9</v>
+        <v>14711932116.51295</v>
       </c>
       <c r="E59">
-        <v>96.12898886077714</v>
+        <v>97.51695878566298</v>
       </c>
       <c r="F59">
-        <v>5.998341039583284</v>
+        <v>5.713297110069927</v>
       </c>
       <c r="G59">
-        <v>4.89215940890908E-06</v>
+        <v>9.551046070699343E-06</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
@@ -2156,25 +2156,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>2.470795691006535E+16</v>
+        <v>654006570286.0819</v>
       </c>
       <c r="D60">
-        <v>982541586209477.8</v>
+        <v>16350848539.72966</v>
       </c>
       <c r="E60">
-        <v>96.02337987804562</v>
+        <v>97.4998953706876</v>
       </c>
       <c r="F60">
-        <v>6.01693940304671</v>
+        <v>4.959639417898881</v>
       </c>
       <c r="G60">
-        <v>4.684638122753881E-06</v>
+        <v>5.809569839931861E-05</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
@@ -2185,25 +2185,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>3.397062752496482E+16</v>
+        <v>1052859501170.646</v>
       </c>
       <c r="D61">
-        <v>1396327342103562</v>
+        <v>27058168820.91214</v>
       </c>
       <c r="E61">
-        <v>95.88960392010006</v>
+        <v>97.43003042753313</v>
       </c>
       <c r="F61">
-        <v>6.068344301577703</v>
+        <v>5.746966964764621</v>
       </c>
       <c r="G61">
-        <v>4.156558162771162E-06</v>
+        <v>8.821391913160781E-06</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
@@ -2214,25 +2214,25 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62">
-        <v>3.408420886080534E+16</v>
+        <v>1620746478918.832</v>
       </c>
       <c r="D62">
-        <v>1410165815743714</v>
+        <v>43858732466.16466</v>
       </c>
       <c r="E62">
-        <v>95.86270046195699</v>
+        <v>97.29391776958097</v>
       </c>
       <c r="F62">
-        <v>6.014152430983843</v>
+        <v>5.799533888521103</v>
       </c>
       <c r="G62">
-        <v>4.715153590018062E-06</v>
+        <v>7.79388080918153E-06</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
@@ -2243,25 +2243,25 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
       <c r="C63">
-        <v>3.455941848899456E+16</v>
+        <v>1675881703641.516</v>
       </c>
       <c r="D63">
-        <v>1433013179791633</v>
+        <v>46128147165.71857</v>
       </c>
       <c r="E63">
-        <v>95.85348005711388</v>
+        <v>97.24752963974205</v>
       </c>
       <c r="F63">
-        <v>6.014212148685355</v>
+        <v>5.793924396380716</v>
       </c>
       <c r="G63">
-        <v>4.714497598978795E-06</v>
+        <v>7.897454239236268E-06</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -2272,30 +2272,291 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1712728393786.48</v>
+      </c>
+      <c r="D64">
+        <v>47381874240.55646</v>
+      </c>
+      <c r="E64">
+        <v>97.23354418526307</v>
+      </c>
+      <c r="F64">
+        <v>5.799345440511664</v>
+      </c>
+      <c r="G64">
+        <v>7.797337738812971E-06</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>1476931647182352</v>
+      </c>
+      <c r="D65">
+        <v>54869063329978.05</v>
+      </c>
+      <c r="E65">
+        <v>96.28492872810629</v>
+      </c>
+      <c r="F65">
+        <v>7.165013066362093</v>
+      </c>
+      <c r="G65">
+        <v>3.498223013487234E-07</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>8995373167014003</v>
+      </c>
+      <c r="D66">
+        <v>340060298262874.4</v>
+      </c>
+      <c r="E66">
+        <v>96.21960877054136</v>
+      </c>
+      <c r="F66">
+        <v>7.305415274211782</v>
+      </c>
+      <c r="G66">
+        <v>2.57681175064306E-07</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>1.273258134267924E+16</v>
+      </c>
+      <c r="D67">
+        <v>486637300837981.1</v>
+      </c>
+      <c r="E67">
+        <v>96.17801537849368</v>
+      </c>
+      <c r="F67">
+        <v>7.272712060199441</v>
+      </c>
+      <c r="G67">
+        <v>2.766339517457084E-07</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1.083940637538422E+16</v>
+      </c>
+      <c r="D68">
+        <v>423202772033612.8</v>
+      </c>
+      <c r="E68">
+        <v>96.09570157831996</v>
+      </c>
+      <c r="F68">
+        <v>9.549830277463794</v>
+      </c>
+      <c r="G68">
+        <v>2.772182927657241E-09</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>2.079498682235909E+16</v>
+      </c>
+      <c r="D69">
+        <v>817390885859121.2</v>
+      </c>
+      <c r="E69">
+        <v>96.0692887529015</v>
+      </c>
+      <c r="F69">
+        <v>7.25010344191222</v>
+      </c>
+      <c r="G69">
+        <v>2.905696052657447E-07</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>2.870218312957031E+16</v>
+      </c>
+      <c r="D70">
+        <v>1153203812976251</v>
+      </c>
+      <c r="E70">
+        <v>95.98217387238336</v>
+      </c>
+      <c r="F70">
+        <v>7.203584202660262</v>
+      </c>
+      <c r="G70">
+        <v>3.215595709704644E-07</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>2.87544009628349E+16</v>
+      </c>
+      <c r="D71">
+        <v>1177234628194075</v>
+      </c>
+      <c r="E71">
+        <v>95.90589757124256</v>
+      </c>
+      <c r="F71">
+        <v>7.222888882224355</v>
+      </c>
+      <c r="G71">
+        <v>3.083063053743729E-07</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>2.915096885790334E+16</v>
+      </c>
+      <c r="D72">
+        <v>1195642070166485</v>
+      </c>
+      <c r="E72">
+        <v>95.89844826086346</v>
+      </c>
+      <c r="F72">
+        <v>7.217805245870291</v>
+      </c>
+      <c r="G72">
+        <v>3.11740962821716E-07</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
         <v>17</v>
       </c>
-      <c r="C64">
-        <v>1890293719.477777</v>
-      </c>
-      <c r="D64">
-        <v>84539325.02215943</v>
-      </c>
-      <c r="E64">
-        <v>95.52771486509967</v>
-      </c>
-      <c r="F64">
-        <v>6.086532204137775</v>
-      </c>
-      <c r="G64">
-        <v>3.984620973174202E-06</v>
-      </c>
-      <c r="H64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="C73">
+        <v>1502699451.718121</v>
+      </c>
+      <c r="D73">
+        <v>67958618.98401152</v>
+      </c>
+      <c r="E73">
+        <v>95.47756413258084</v>
+      </c>
+      <c r="F73">
+        <v>6.230586074180454</v>
+      </c>
+      <c r="G73">
+        <v>2.855354205744121E-06</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
         <v>20</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/6_tabla_dm_por_d_fixed_m.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/6_tabla_dm_por_d_fixed_m.xlsx
@@ -52,9 +52,6 @@
     <t>EnCQR-LSTM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>DeepAR</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>LSPM</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
   </si>
   <si>
     <t>Sieve Bootstrap</t>
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.015035218607613</v>
+        <v>2.65747106496605</v>
       </c>
       <c r="D5">
-        <v>0.8201838140663581</v>
+        <v>0.5703222791555561</v>
       </c>
       <c r="E5">
-        <v>79.57218880010741</v>
+        <v>78.53890916540075</v>
       </c>
       <c r="F5">
-        <v>6.344614883164578</v>
+        <v>2.494871527303883</v>
       </c>
       <c r="G5">
-        <v>2.197108210477694E-06</v>
+        <v>0.02059645052341619</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -596,19 +596,19 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.65747106496605</v>
+        <v>3.045061224774464</v>
       </c>
       <c r="D6">
-        <v>0.5703222791555561</v>
+        <v>0.7074335935529131</v>
       </c>
       <c r="E6">
-        <v>78.53890916540075</v>
+        <v>76.76783679102182</v>
       </c>
       <c r="F6">
-        <v>2.494871527303883</v>
+        <v>3.979940955020395</v>
       </c>
       <c r="G6">
-        <v>0.02059645052341619</v>
+        <v>0.0006333609825530662</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -625,19 +625,19 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3.045061224774464</v>
+        <v>2.701955361016653</v>
       </c>
       <c r="D7">
-        <v>0.7074335935529131</v>
+        <v>0.6889183596399426</v>
       </c>
       <c r="E7">
-        <v>76.76783679102182</v>
+        <v>74.50297034586364</v>
       </c>
       <c r="F7">
-        <v>3.979940955020395</v>
+        <v>4.233609761091651</v>
       </c>
       <c r="G7">
-        <v>0.0006333609825530662</v>
+        <v>0.0003410168527335777</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -654,19 +654,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>2.701955361016653</v>
+        <v>1.134104262201696</v>
       </c>
       <c r="D8">
-        <v>0.6889183596399426</v>
+        <v>0.6646327975475445</v>
       </c>
       <c r="E8">
-        <v>74.50297034586364</v>
+        <v>41.39579404654932</v>
       </c>
       <c r="F8">
-        <v>4.233609761091651</v>
+        <v>9.32770205465871</v>
       </c>
       <c r="G8">
-        <v>0.0003410168527335777</v>
+        <v>4.216664573064577E-09</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -683,19 +683,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.134104262201696</v>
+        <v>1.136768169855944</v>
       </c>
       <c r="D9">
-        <v>0.6646327975475445</v>
+        <v>0.671980650564856</v>
       </c>
       <c r="E9">
-        <v>41.39579404654932</v>
+        <v>40.88674644628622</v>
       </c>
       <c r="F9">
-        <v>9.32770205465871</v>
+        <v>9.870731880388252</v>
       </c>
       <c r="G9">
-        <v>4.216664573064577E-09</v>
+        <v>1.528800641636963E-09</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1032.364311169534</v>
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>607.6788956355718</v>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>496.1349728514716</v>
@@ -912,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>218.4341029728908</v>
+        <v>58.16326180633573</v>
       </c>
       <c r="D17">
-        <v>29.80785785109789</v>
+        <v>28.91359804756351</v>
       </c>
       <c r="E17">
-        <v>86.35384427366763</v>
+        <v>50.28889861122961</v>
       </c>
       <c r="F17">
-        <v>4.456080084220476</v>
+        <v>4.462958617510705</v>
       </c>
       <c r="G17">
-        <v>0.0001980130164593863</v>
+        <v>0.0001947137330660098</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -944,19 +944,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>58.16326180633573</v>
+        <v>58.13946918268717</v>
       </c>
       <c r="D18">
-        <v>28.91359804756351</v>
+        <v>28.9076813004957</v>
       </c>
       <c r="E18">
-        <v>50.28889861122961</v>
+        <v>50.27873197524158</v>
       </c>
       <c r="F18">
-        <v>4.462958617510705</v>
+        <v>4.45838598591608</v>
       </c>
       <c r="G18">
-        <v>0.0001947137330660098</v>
+        <v>0.0001969007947060231</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>173959.1629817165</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>94891.83174998802</v>
@@ -1057,22 +1057,22 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>30721.6938354555</v>
+        <v>224661.9279532027</v>
       </c>
       <c r="D22">
-        <v>206.8158176423964</v>
+        <v>1668.793212724136</v>
       </c>
       <c r="E22">
-        <v>99.32680854529019</v>
+        <v>99.25719803621033</v>
       </c>
       <c r="F22">
-        <v>5.620627292294299</v>
+        <v>5.791045711614122</v>
       </c>
       <c r="G22">
-        <v>1.189320252614756E-05</v>
+        <v>7.951149563867332E-06</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
@@ -1086,22 +1086,22 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>224661.9279532027</v>
+        <v>239029.2143902132</v>
       </c>
       <c r="D23">
-        <v>1668.793212724136</v>
+        <v>1822.124109082956</v>
       </c>
       <c r="E23">
-        <v>99.25719803621033</v>
+        <v>99.23769815596334</v>
       </c>
       <c r="F23">
-        <v>5.791045711614122</v>
+        <v>5.817629428354874</v>
       </c>
       <c r="G23">
-        <v>7.951149563867332E-06</v>
+        <v>7.46910221427477E-06</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
@@ -1115,22 +1115,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>239029.2143902132</v>
+        <v>51463.44232116333</v>
       </c>
       <c r="D24">
-        <v>1822.124109082956</v>
+        <v>515.8738629160657</v>
       </c>
       <c r="E24">
-        <v>99.23769815596334</v>
+        <v>98.9975916113487</v>
       </c>
       <c r="F24">
-        <v>5.817629428354874</v>
+        <v>5.406969511476652</v>
       </c>
       <c r="G24">
-        <v>7.46910221427477E-06</v>
+        <v>1.97813312365902E-05</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -1144,22 +1144,22 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>51463.44232116333</v>
+        <v>76725.4774647124</v>
       </c>
       <c r="D25">
-        <v>515.8738629160657</v>
+        <v>804.4784241064688</v>
       </c>
       <c r="E25">
-        <v>98.9975916113487</v>
+        <v>98.9514846297614</v>
       </c>
       <c r="F25">
-        <v>5.406969511476652</v>
+        <v>6.144802766344924</v>
       </c>
       <c r="G25">
-        <v>1.97813312365902E-05</v>
+        <v>3.481112960557198E-06</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -1173,22 +1173,22 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>76725.4774647124</v>
+        <v>4687.969884107692</v>
       </c>
       <c r="D26">
-        <v>804.4784241064688</v>
+        <v>54.92132823176864</v>
       </c>
       <c r="E26">
-        <v>98.9514846297614</v>
+        <v>98.82846243492406</v>
       </c>
       <c r="F26">
-        <v>6.144802766344924</v>
+        <v>5.762959678840502</v>
       </c>
       <c r="G26">
-        <v>3.481112960557198E-06</v>
+        <v>8.49495688237667E-06</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>4680.645402168596</v>
@@ -1260,22 +1260,22 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>2576969.00124671</v>
+        <v>401817.5202235829</v>
       </c>
       <c r="D29">
-        <v>27775.5852990267</v>
+        <v>4335.482842240131</v>
       </c>
       <c r="E29">
-        <v>98.92216067459138</v>
+        <v>98.92103190527189</v>
       </c>
       <c r="F29">
-        <v>6.025625107413418</v>
+        <v>6.04567001826597</v>
       </c>
       <c r="G29">
-        <v>4.590822228811575E-06</v>
+        <v>4.38156400450751E-06</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
@@ -1292,19 +1292,19 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>401817.5202235829</v>
+        <v>400134.7069724926</v>
       </c>
       <c r="D30">
-        <v>4335.482842240131</v>
+        <v>4331.448889646987</v>
       </c>
       <c r="E30">
-        <v>98.92103190527189</v>
+        <v>98.91750232754872</v>
       </c>
       <c r="F30">
-        <v>6.04567001826597</v>
+        <v>6.037894737575589</v>
       </c>
       <c r="G30">
-        <v>4.38156400450751E-06</v>
+        <v>4.461552906676047E-06</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>7650016.09706249</v>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>14005904.0100794</v>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>3949555.41930737</v>
@@ -1521,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>31959278.30984279</v>
@@ -1550,22 +1550,22 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>202282824.2453786</v>
+        <v>31383316.41009646</v>
       </c>
       <c r="D39">
-        <v>3089957.108081071</v>
+        <v>479389.9575332087</v>
       </c>
       <c r="E39">
-        <v>98.47245700686243</v>
+        <v>98.47246877522802</v>
       </c>
       <c r="F39">
-        <v>6.005243624812292</v>
+        <v>5.975061803818217</v>
       </c>
       <c r="G39">
-        <v>4.814066743019652E-06</v>
+        <v>5.16519300819418E-06</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>302029135.8022056</v>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>574225765.8906945</v>
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>992793839.8827198</v>
@@ -1811,7 +1811,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>1287459788.280791</v>
@@ -1840,22 +1840,22 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>8148610972.51496</v>
+        <v>1265644238.911851</v>
       </c>
       <c r="D49">
-        <v>160826311.8691058</v>
+        <v>24942430.48433685</v>
       </c>
       <c r="E49">
-        <v>98.0263346426579</v>
+        <v>98.02927001779099</v>
       </c>
       <c r="F49">
-        <v>8.012173778048647</v>
+        <v>8.033005460928365</v>
       </c>
       <c r="G49">
-        <v>5.756053234051706E-08</v>
+        <v>5.512877110369629E-08</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -1869,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>12023767741.14577</v>
@@ -1898,7 +1898,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>22120957776.42364</v>
@@ -1956,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>36559212319.26645</v>
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>64380602828.17851</v>
@@ -2101,22 +2101,22 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>405391373034.7842</v>
+        <v>62460288396.99023</v>
       </c>
       <c r="D58">
-        <v>9982603070.527473</v>
+        <v>1523777560.795277</v>
       </c>
       <c r="E58">
-        <v>97.53753934234044</v>
+        <v>97.56040581959799</v>
       </c>
       <c r="F58">
-        <v>5.693267506750887</v>
+        <v>5.786140801158132</v>
       </c>
       <c r="G58">
-        <v>1.001396999433801E-05</v>
+        <v>8.043497842891156E-06</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>592496493073.3569</v>
@@ -2188,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>1052859501170.646</v>
@@ -2217,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>1620746478918.832</v>
@@ -2304,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>1476931647182352</v>
@@ -2333,22 +2333,22 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>8995373167014003</v>
+        <v>1436397544180646</v>
       </c>
       <c r="D66">
-        <v>340060298262874.4</v>
+        <v>53371990299098.23</v>
       </c>
       <c r="E66">
-        <v>96.21960877054136</v>
+        <v>96.28431623854225</v>
       </c>
       <c r="F66">
-        <v>7.305415274211782</v>
+        <v>7.226498109201343</v>
       </c>
       <c r="G66">
-        <v>2.57681175064306E-07</v>
+        <v>3.058914341824703E-07</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>1.273258134267924E+16</v>
@@ -2420,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>2.079498682235909E+16</v>
@@ -2449,7 +2449,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>2.870218312957031E+16</v>
